--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -7,15 +7,13 @@
     <sheet state="visible" name="Hoja2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Hoja3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Hoja1!$A$1:$E$104</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>valor</t>
   </si>
@@ -26,13 +24,7 @@
     <t>año</t>
   </si>
   <si>
-    <t>Moneda</t>
-  </si>
-  <si>
-    <t>peso</t>
-  </si>
-  <si>
-    <t>austral</t>
+    <t>tipo</t>
   </si>
 </sst>
 </file>
@@ -49,7 +41,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,10 +61,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -298,1878 +289,1568 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="9.43"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="27.29"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="1" width="9.86"/>
+    <col customWidth="1" min="2" max="2" width="9.43"/>
+    <col customWidth="1" min="3" max="3" width="12.0"/>
+    <col customWidth="1" min="4" max="4" width="27.29"/>
+    <col customWidth="1" min="5" max="5" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="2">
         <v>0.2</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2">
         <v>1909.0</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E104" si="1">IF(AND(D2&gt;1880,D2&lt;1970),"Peso Moneda Nacional",IF(AND(D2&gt;1969,D2&lt;1983),"Peso Ley",IF(AND(D2&gt;1982, D2&lt;1985), "Peso Argentino", IF(AND(D2&gt;1984, D2&lt;1992), "Austral", "Fuera de rango"))))</f>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D104" si="1">IF(AND(C2&gt;1880,C2&lt;1970),"Peso Moneda Nacional",IF(AND(C2&gt;1969,C2&lt;1983),"Peso Ley",IF(AND(C2&gt;1982, C2&lt;1985), "Peso Argentino", IF(AND(C2&gt;1984, C2&lt;1992), "Austral", "Fuera de rango"))))</f>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2">
         <v>0.1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2">
         <v>1912.0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="D3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1912.0</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="2">
         <v>1916.0</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="2">
         <v>0.2</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="2">
         <v>1916.0</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="2">
         <v>0.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
         <v>2.0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2">
         <v>1919.0</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="2">
         <v>1923.0</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="2">
         <v>0.1</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="2">
         <v>1924.0</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="2">
         <v>0.1</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="2">
         <v>1925.0</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="2">
         <v>0.2</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="2">
         <v>1925.0</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" s="2">
         <v>0.1</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="2">
         <v>1926.0</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="2">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="2">
         <v>1926.0</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="2">
         <v>0.1</v>
       </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="2">
         <v>1927.0</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="2">
         <v>0.2</v>
       </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="2">
         <v>1927.0</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="2">
         <v>0.05</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="2">
         <v>1928.0</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="2">
         <v>0.1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2">
         <v>5.0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
         <v>1928.0</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="2">
         <v>0.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2">
         <v>2.0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
         <v>1929.0</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="2">
         <v>0.1</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="2">
         <v>1930.0</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="2">
         <v>0.1</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="2">
         <v>1933.0</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="2">
         <v>0.1</v>
       </c>
-      <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="2">
         <v>1936.0</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" s="2">
         <v>0.1</v>
       </c>
-      <c r="C22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="2">
         <v>1937.0</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="A23" s="2">
         <v>0.05</v>
       </c>
-      <c r="C23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="2">
         <v>1938.0</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="2">
         <v>0.1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C24" s="2">
         <v>1938.0</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="2">
         <v>0.2</v>
       </c>
-      <c r="C25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="2">
         <v>1938.0</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="D25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="2">
         <v>0.05</v>
       </c>
-      <c r="C26" s="1">
+      <c r="B26" s="2">
         <v>2.0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="C26" s="2">
         <v>1940.0</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="D26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27" s="2">
         <v>0.2</v>
       </c>
-      <c r="C27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="2">
         <v>1943.0</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="D27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28" s="2">
         <v>0.1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="B28" s="2">
         <v>2.0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="C28" s="2">
         <v>1944.0</v>
       </c>
-      <c r="E28" s="2" t="str">
+      <c r="D28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="A29" s="2">
         <v>0.2</v>
       </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="2">
         <v>1945.0</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="A30" s="2">
         <v>0.1</v>
       </c>
-      <c r="C30" s="1">
+      <c r="B30" s="2">
         <v>2.0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="C30" s="2">
         <v>1946.0</v>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31" s="2">
         <v>0.05</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="2">
         <v>1948.0</v>
       </c>
-      <c r="E31" s="2" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="A32" s="2">
         <v>0.1</v>
       </c>
-      <c r="C32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="2">
         <v>1948.0</v>
       </c>
-      <c r="E32" s="2" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="A33" s="2">
         <v>0.05</v>
       </c>
-      <c r="C33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="2">
         <v>1949.0</v>
       </c>
-      <c r="E33" s="2" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34" s="2">
         <v>0.1</v>
       </c>
-      <c r="C34" s="1">
+      <c r="B34" s="2">
         <v>2.0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="C34" s="2">
         <v>1949.0</v>
       </c>
-      <c r="E34" s="2" t="str">
+      <c r="D34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="A35" s="2">
         <v>0.2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="B35" s="2">
         <v>2.0</v>
       </c>
-      <c r="D35" s="1">
+      <c r="C35" s="2">
         <v>1949.0</v>
       </c>
-      <c r="E35" s="2" t="str">
+      <c r="D35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A36" s="2">
         <v>0.05</v>
       </c>
-      <c r="C36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="2">
         <v>1950.0</v>
       </c>
-      <c r="E36" s="2" t="str">
+      <c r="D36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="A37" s="2">
         <v>0.1</v>
       </c>
-      <c r="C37" s="1">
+      <c r="B37" s="2">
         <v>4.0</v>
       </c>
-      <c r="D37" s="1">
+      <c r="C37" s="2">
         <v>1950.0</v>
       </c>
-      <c r="E37" s="2" t="str">
+      <c r="D37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="2">
         <v>0.2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="B38" s="2">
         <v>4.0</v>
       </c>
-      <c r="D38" s="1">
+      <c r="C38" s="2">
         <v>1950.0</v>
       </c>
-      <c r="E38" s="2" t="str">
+      <c r="D38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="2">
         <v>0.1</v>
       </c>
-      <c r="C39" s="1">
+      <c r="B39" s="2">
         <v>3.0</v>
       </c>
-      <c r="D39" s="1">
+      <c r="C39" s="2">
         <v>1951.0</v>
       </c>
-      <c r="E39" s="2" t="str">
+      <c r="D39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="A40" s="2">
         <v>0.2</v>
       </c>
-      <c r="C40" s="1">
+      <c r="B40" s="2">
         <v>4.0</v>
       </c>
-      <c r="D40" s="1">
+      <c r="C40" s="2">
         <v>1951.0</v>
       </c>
-      <c r="E40" s="2" t="str">
+      <c r="D40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="2">
         <v>0.2</v>
       </c>
-      <c r="C41" s="1">
+      <c r="B41" s="2">
         <v>2.0</v>
       </c>
-      <c r="D41" s="1">
+      <c r="C41" s="2">
         <v>1952.0</v>
       </c>
-      <c r="E41" s="2" t="str">
+      <c r="D41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42" s="2">
         <v>0.1</v>
       </c>
-      <c r="C42" s="1">
+      <c r="B42" s="2">
         <v>4.0</v>
       </c>
-      <c r="D42" s="1">
+      <c r="C42" s="2">
         <v>1953.0</v>
       </c>
-      <c r="E42" s="2" t="str">
+      <c r="D42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A43" s="2">
         <v>0.2</v>
       </c>
-      <c r="C43" s="1">
+      <c r="B43" s="2">
         <v>2.0</v>
       </c>
-      <c r="D43" s="1">
+      <c r="C43" s="2">
         <v>1953.0</v>
       </c>
-      <c r="E43" s="2" t="str">
+      <c r="D43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44" s="2">
         <v>0.05</v>
       </c>
-      <c r="C44" s="1">
+      <c r="B44" s="2">
         <v>2.0</v>
       </c>
-      <c r="D44" s="1">
+      <c r="C44" s="2">
         <v>1954.0</v>
       </c>
-      <c r="E44" s="2" t="str">
+      <c r="D44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45" s="2">
         <v>0.1</v>
       </c>
-      <c r="C45" s="1">
+      <c r="B45" s="2">
         <v>6.0</v>
       </c>
-      <c r="D45" s="1">
+      <c r="C45" s="2">
         <v>1954.0</v>
       </c>
-      <c r="E45" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="A46" s="2">
         <v>0.2</v>
       </c>
-      <c r="C46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="2">
         <v>1954.0</v>
       </c>
-      <c r="E46" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="A47" s="2">
         <v>0.1</v>
       </c>
-      <c r="C47" s="1">
+      <c r="B47" s="2">
         <v>5.0</v>
       </c>
-      <c r="D47" s="1">
+      <c r="C47" s="2">
         <v>1955.0</v>
       </c>
-      <c r="E47" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A48" s="2">
         <v>0.5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="B48" s="2">
         <v>3.0</v>
       </c>
-      <c r="D48" s="1">
+      <c r="C48" s="2">
         <v>1955.0</v>
       </c>
-      <c r="E48" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="A49" s="2">
         <v>0.05</v>
       </c>
-      <c r="C49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="2">
         <v>1956.0</v>
       </c>
-      <c r="E49" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="A50" s="2">
         <v>0.1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="B50" s="2">
         <v>5.0</v>
       </c>
-      <c r="D50" s="1">
+      <c r="C50" s="2">
         <v>1956.0</v>
       </c>
-      <c r="E50" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="2">
         <v>0.2</v>
       </c>
-      <c r="C51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="2">
         <v>1956.0</v>
       </c>
-      <c r="E51" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52" s="2">
         <v>0.05</v>
       </c>
-      <c r="C52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="B52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="2">
         <v>1957.0</v>
       </c>
-      <c r="E52" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53" s="2">
         <v>0.2</v>
       </c>
-      <c r="C53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="B53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="2">
         <v>1957.0</v>
       </c>
-      <c r="E53" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="A54" s="2">
         <v>0.2</v>
       </c>
-      <c r="C54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="B54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="2">
         <v>1958.0</v>
       </c>
-      <c r="E54" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="A55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="2">
         <v>1959.0</v>
       </c>
-      <c r="E55" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="A56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B56" s="2">
         <v>2.0</v>
       </c>
-      <c r="D56" s="1">
+      <c r="C56" s="2">
         <v>1960.0</v>
       </c>
-      <c r="E56" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="A57" s="2">
         <v>5.0</v>
       </c>
-      <c r="C57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="B57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="2">
         <v>1962.0</v>
       </c>
-      <c r="E57" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="A58" s="2">
         <v>10.0</v>
       </c>
-      <c r="C58" s="1">
+      <c r="B58" s="2">
         <v>2.0</v>
       </c>
-      <c r="D58" s="1">
+      <c r="C58" s="2">
         <v>1962.0</v>
       </c>
-      <c r="E58" s="2" t="str">
+      <c r="D58" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="A59" s="2">
         <v>5.0</v>
       </c>
-      <c r="C59" s="1">
+      <c r="B59" s="2">
         <v>2.0</v>
       </c>
-      <c r="D59" s="1">
+      <c r="C59" s="2">
         <v>1963.0</v>
       </c>
-      <c r="E59" s="2" t="str">
+      <c r="D59" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="A60" s="2">
         <v>10.0</v>
       </c>
-      <c r="C60" s="1">
+      <c r="B60" s="2">
         <v>3.0</v>
       </c>
-      <c r="D60" s="1">
+      <c r="C60" s="2">
         <v>1963.0</v>
       </c>
-      <c r="E60" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="A61" s="2">
         <v>5.0</v>
       </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="B61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="2">
         <v>1964.0</v>
       </c>
-      <c r="E61" s="2" t="str">
+      <c r="D61" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="A62" s="2">
         <v>10.0</v>
       </c>
-      <c r="C62" s="1">
+      <c r="B62" s="2">
         <v>2.0</v>
       </c>
-      <c r="D62" s="1">
+      <c r="C62" s="2">
         <v>1964.0</v>
       </c>
-      <c r="E62" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="A63" s="2">
         <v>5.0</v>
       </c>
-      <c r="C63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="2">
         <v>1966.0</v>
       </c>
-      <c r="E63" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="A64" s="2">
         <v>5.0</v>
       </c>
-      <c r="C64" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="2">
         <v>1967.0</v>
       </c>
-      <c r="E64" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="A65" s="2">
         <v>10.0</v>
       </c>
-      <c r="C65" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="2">
         <v>1967.0</v>
       </c>
-      <c r="E65" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="A66" s="2">
         <v>10.0</v>
       </c>
-      <c r="C66" s="1">
+      <c r="B66" s="2">
         <v>2.0</v>
       </c>
-      <c r="D66" s="1">
+      <c r="C66" s="2">
         <v>1968.0</v>
       </c>
-      <c r="E66" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Moneda Nacional</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="A67" s="2">
         <v>0.5</v>
       </c>
-      <c r="C67" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C67" s="2">
         <v>1970.0</v>
       </c>
-      <c r="E67" s="2" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="A68" s="2">
         <v>0.1</v>
       </c>
-      <c r="C68" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="2">
         <v>1971.0</v>
       </c>
-      <c r="E68" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69" s="2">
         <v>0.2</v>
       </c>
-      <c r="C69" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C69" s="2">
         <v>1971.0</v>
       </c>
-      <c r="E69" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="A70" s="2">
         <v>0.05</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C70" s="2">
         <v>1972.0</v>
       </c>
-      <c r="E70" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="1">
+      <c r="A71" s="2">
         <v>0.5</v>
       </c>
-      <c r="C71" s="1">
+      <c r="B71" s="2">
         <v>2.0</v>
       </c>
-      <c r="D71" s="1">
+      <c r="C71" s="2">
         <v>1972.0</v>
       </c>
-      <c r="E71" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="A72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C72" s="2">
         <v>1972.0</v>
       </c>
-      <c r="E72" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73" s="2">
         <v>0.05</v>
       </c>
-      <c r="C73" s="1">
+      <c r="B73" s="2">
         <v>2.0</v>
       </c>
-      <c r="D73" s="1">
+      <c r="C73" s="2">
         <v>1973.0</v>
       </c>
-      <c r="E73" s="2" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="A74" s="2">
         <v>0.1</v>
       </c>
-      <c r="C74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="B74" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C74" s="2">
         <v>1973.0</v>
       </c>
-      <c r="E74" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="A75" s="2">
         <v>0.2</v>
       </c>
-      <c r="C75" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="B75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C75" s="2">
         <v>1973.0</v>
       </c>
-      <c r="E75" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="1">
+      <c r="A76" s="2">
         <v>0.5</v>
       </c>
-      <c r="C76" s="1">
+      <c r="B76" s="2">
         <v>2.0</v>
       </c>
-      <c r="D76" s="1">
+      <c r="C76" s="2">
         <v>1973.0</v>
       </c>
-      <c r="E76" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="A77" s="2">
         <v>0.05</v>
       </c>
-      <c r="C77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="B77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C77" s="2">
         <v>1974.0</v>
       </c>
-      <c r="E77" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="1">
+      <c r="A78" s="2">
         <v>0.1</v>
       </c>
-      <c r="C78" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="B78" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C78" s="2">
         <v>1974.0</v>
       </c>
-      <c r="E78" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="1">
+      <c r="A79" s="2">
         <v>0.2</v>
       </c>
-      <c r="C79" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="B79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C79" s="2">
         <v>1974.0</v>
       </c>
-      <c r="E79" s="2" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="1">
+      <c r="A80" s="2">
         <v>0.5</v>
       </c>
-      <c r="C80" s="1">
+      <c r="B80" s="2">
         <v>5.0</v>
       </c>
-      <c r="D80" s="1">
+      <c r="C80" s="2">
         <v>1974.0</v>
       </c>
-      <c r="E80" s="2" t="str">
+      <c r="D80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="A81" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B81" s="2">
         <v>2.0</v>
       </c>
-      <c r="D81" s="1">
+      <c r="C81" s="2">
         <v>1974.0</v>
       </c>
-      <c r="E81" s="2" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="1">
+      <c r="A82" s="2">
         <v>0.2</v>
       </c>
-      <c r="C82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="B82" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C82" s="2">
         <v>1975.0</v>
       </c>
-      <c r="E82" s="2" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="1">
+      <c r="A83" s="2">
         <v>0.5</v>
       </c>
-      <c r="C83" s="1">
+      <c r="B83" s="2">
         <v>5.0</v>
       </c>
-      <c r="D83" s="1">
+      <c r="C83" s="2">
         <v>1975.0</v>
       </c>
-      <c r="E83" s="2" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="A84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B84" s="2">
         <v>12.0</v>
       </c>
-      <c r="D84" s="1">
+      <c r="C84" s="2">
         <v>1975.0</v>
       </c>
-      <c r="E84" s="2" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="A85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B85" s="2">
         <v>11.0</v>
       </c>
-      <c r="D85" s="1">
+      <c r="C85" s="2">
         <v>1975.0</v>
       </c>
-      <c r="E85" s="2" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="1">
+      <c r="A86" s="2">
         <v>5.0</v>
       </c>
-      <c r="C86" s="1">
+      <c r="B86" s="2">
         <v>14.0</v>
       </c>
-      <c r="D86" s="1">
+      <c r="C86" s="2">
         <v>1976.0</v>
       </c>
-      <c r="E86" s="2" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="1">
+      <c r="A87" s="2">
         <v>10.0</v>
       </c>
-      <c r="C87" s="1">
+      <c r="B87" s="2">
         <v>4.0</v>
       </c>
-      <c r="D87" s="1">
+      <c r="C87" s="2">
         <v>1976.0</v>
       </c>
-      <c r="E87" s="2" t="str">
+      <c r="D87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="1">
+      <c r="A88" s="2">
         <v>5.0</v>
       </c>
-      <c r="C88" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="B88" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="2">
         <v>1977.0</v>
       </c>
-      <c r="E88" s="2" t="str">
+      <c r="D88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="1">
+      <c r="A89" s="2">
         <v>10.0</v>
       </c>
-      <c r="C89" s="1">
+      <c r="B89" s="2">
         <v>6.0</v>
       </c>
-      <c r="D89" s="1">
+      <c r="C89" s="2">
         <v>1977.0</v>
       </c>
-      <c r="E89" s="2" t="str">
+      <c r="D89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="1">
+      <c r="A90" s="2">
         <v>10.0</v>
       </c>
-      <c r="C90" s="1">
+      <c r="B90" s="2">
         <v>4.0</v>
       </c>
-      <c r="D90" s="1">
+      <c r="C90" s="2">
         <v>1978.0</v>
       </c>
-      <c r="E90" s="2" t="str">
+      <c r="D90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="A91" s="2">
         <v>50.0</v>
       </c>
-      <c r="C91" s="1">
+      <c r="B91" s="2">
         <v>13.0</v>
       </c>
-      <c r="D91" s="1">
+      <c r="C91" s="2">
         <v>1978.0</v>
       </c>
-      <c r="E91" s="2" t="str">
+      <c r="D91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="1">
+      <c r="A92" s="2">
         <v>100.0</v>
       </c>
-      <c r="C92" s="1">
+      <c r="B92" s="2">
         <v>17.0</v>
       </c>
-      <c r="D92" s="1">
+      <c r="C92" s="2">
         <v>1978.0</v>
       </c>
-      <c r="E92" s="2" t="str">
+      <c r="D92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="1">
+      <c r="A93" s="2">
         <v>50.0</v>
       </c>
-      <c r="C93" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="B93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C93" s="2">
         <v>1979.0</v>
       </c>
-      <c r="E93" s="2" t="str">
+      <c r="D93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="1">
+      <c r="A94" s="2">
         <v>100.0</v>
       </c>
-      <c r="C94" s="1">
+      <c r="B94" s="2">
         <v>9.0</v>
       </c>
-      <c r="D94" s="1">
+      <c r="C94" s="2">
         <v>1979.0</v>
       </c>
-      <c r="E94" s="2" t="str">
+      <c r="D94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1">
+      <c r="A95" s="2">
         <v>100.0</v>
       </c>
-      <c r="C95" s="1">
+      <c r="B95" s="2">
         <v>7.0</v>
       </c>
-      <c r="D95" s="1">
+      <c r="C95" s="2">
         <v>1980.0</v>
       </c>
-      <c r="E95" s="2" t="str">
+      <c r="D95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="1">
+      <c r="A96" s="2">
         <v>100.0</v>
       </c>
-      <c r="C96" s="1">
+      <c r="B96" s="2">
         <v>8.0</v>
       </c>
-      <c r="D96" s="1">
+      <c r="C96" s="2">
         <v>1981.0</v>
       </c>
-      <c r="E96" s="2" t="str">
+      <c r="D96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Ley</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="1">
+      <c r="A97" s="2">
         <v>0.1</v>
       </c>
-      <c r="C97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="B97" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C97" s="2">
         <v>1983.0</v>
       </c>
-      <c r="E97" s="2" t="str">
+      <c r="D97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Argentino</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="1">
+      <c r="A98" s="2">
         <v>0.5</v>
       </c>
-      <c r="C98" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="B98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C98" s="2">
         <v>1983.0</v>
       </c>
-      <c r="E98" s="2" t="str">
+      <c r="D98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Peso Argentino</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="1">
+      <c r="A99" s="2">
         <v>0.05</v>
       </c>
-      <c r="C99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="B99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="2">
         <v>1992.0</v>
       </c>
-      <c r="E99" s="2" t="str">
+      <c r="D99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Fuera de rango</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1">
+      <c r="A100" s="2">
         <v>0.01</v>
       </c>
-      <c r="C100" s="1">
+      <c r="B100" s="2">
         <v>2.0</v>
       </c>
-      <c r="D100" s="1">
+      <c r="C100" s="2">
         <v>1986.0</v>
       </c>
-      <c r="E100" s="2" t="str">
+      <c r="D100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Austral</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1">
+      <c r="A101" s="2">
         <v>0.5</v>
       </c>
-      <c r="C101" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="B101" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C101" s="2">
         <v>1987.0</v>
       </c>
-      <c r="E101" s="2" t="str">
+      <c r="D101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Austral</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="1">
+      <c r="A102" s="2">
         <v>0.1</v>
       </c>
-      <c r="C102" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="B102" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C102" s="2">
         <v>1987.0</v>
       </c>
-      <c r="E102" s="2" t="str">
+      <c r="D102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Austral</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="1">
+      <c r="A103" s="2">
         <v>0.1</v>
       </c>
-      <c r="C103" s="1">
+      <c r="B103" s="2">
         <v>3.0</v>
       </c>
-      <c r="D103" s="1">
+      <c r="C103" s="2">
         <v>1988.0</v>
       </c>
-      <c r="E103" s="2" t="str">
+      <c r="D103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Austral</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1">
+      <c r="A104" s="2">
         <v>500.0</v>
       </c>
-      <c r="C104" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="B104" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C104" s="2">
         <v>1990.0</v>
       </c>
-      <c r="E104" s="2" t="str">
+      <c r="D104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Austral</v>
       </c>
@@ -3071,12 +2752,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$104">
-    <sortState ref="A1:E104">
-      <sortCondition descending="1" ref="E1:E104"/>
-      <sortCondition ref="D1:D104"/>
-    </sortState>
-  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -3094,7 +2769,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="6" width="10.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4095,7 +3770,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="6" width="10.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
